--- a/excel/exported/arrivals.xlsx
+++ b/excel/exported/arrivals.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9085" uniqueCount="4707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9981" uniqueCount="5107">
   <si>
     <t>L 1746 RA</t>
   </si>
@@ -14135,6 +14135,1206 @@
   </si>
   <si>
     <t>2021-06-02 17:19:24.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>110/SJ/LPG/V/2021</t>
+  </si>
+  <si>
+    <t>2021-06-03 14:40:35.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 13:36:03.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210603</t>
+  </si>
+  <si>
+    <t>109/SJ/LPG/V/2021</t>
+  </si>
+  <si>
+    <t>2021-06-03 14:41:36.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 13:36:49.0000000</t>
+  </si>
+  <si>
+    <t>108/SJ/LPG/V/2021</t>
+  </si>
+  <si>
+    <t>2021-06-03 21:48:27.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 15:25:39.0000000</t>
+  </si>
+  <si>
+    <t>112/SJ/LPG/V/2021</t>
+  </si>
+  <si>
+    <t>2021-06-03 14:49:43.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 13:37:01.0000000</t>
+  </si>
+  <si>
+    <t>BE 9771 FXV</t>
+  </si>
+  <si>
+    <t>107/SJ/LPG/V/2021</t>
+  </si>
+  <si>
+    <t>2021-06-03 14:51:20.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 15:07:28.0000000</t>
+  </si>
+  <si>
+    <t>BE 9914 FXV</t>
+  </si>
+  <si>
+    <t>106/SJ/LPG/V/2021</t>
+  </si>
+  <si>
+    <t>2021-06-03 22:09:58.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 15:07:41.0000000</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>2021-06-03 15:11:16.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 13:36:38.0000000</t>
+  </si>
+  <si>
+    <t>G0.SBXX.210603</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>2021-06-03 15:12:52.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 13:36:15.0000000</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>2021-06-03 22:16:45.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 15:16:16.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 05:20:02.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-03 15:07:02.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 14:58:33.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 14:53:59.0000000</t>
+  </si>
+  <si>
+    <t>G0.SBXX.210604</t>
+  </si>
+  <si>
+    <t>210542</t>
+  </si>
+  <si>
+    <t>2021-06-04 15:00:21.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 14:54:11.0000000</t>
+  </si>
+  <si>
+    <t>G0.ZAXX.210604</t>
+  </si>
+  <si>
+    <t>2021-06-04 15:04:24.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 14:54:21.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 15:05:18.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 14:54:31.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 15:06:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 14:54:57.0000000</t>
+  </si>
+  <si>
+    <t>008/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-04 22:07:49.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 14:04:05.0000000</t>
+  </si>
+  <si>
+    <t>J3/05/2021</t>
+  </si>
+  <si>
+    <t>2021-06-04 15:13:52.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 14:54:46.0000000</t>
+  </si>
+  <si>
+    <t>G0.XXXX.210604</t>
+  </si>
+  <si>
+    <t>2021-06-04 15:24:39.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-04 14:55:12.0000000</t>
+  </si>
+  <si>
+    <t>BE 9731 CU</t>
+  </si>
+  <si>
+    <t>003/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-04 20:14:51.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 14:04:13.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210604</t>
+  </si>
+  <si>
+    <t>2021-06-05 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>006859</t>
+  </si>
+  <si>
+    <t>2021-06-05 15:27:18.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 14:04:48.0000000</t>
+  </si>
+  <si>
+    <t>G0.SAXX.210605</t>
+  </si>
+  <si>
+    <t>007/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-05 15:28:31.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 14:04:57.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210605</t>
+  </si>
+  <si>
+    <t>2021-06-05 15:36:13.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 14:05:06.0000000</t>
+  </si>
+  <si>
+    <t>G0.SBXX.210605</t>
+  </si>
+  <si>
+    <t>006863</t>
+  </si>
+  <si>
+    <t>2021-06-05 15:37:57.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 14:04:33.0000000</t>
+  </si>
+  <si>
+    <t>B 9303 UIX</t>
+  </si>
+  <si>
+    <t>K210029</t>
+  </si>
+  <si>
+    <t>BEAU-2768021</t>
+  </si>
+  <si>
+    <t>2021-06-05 23:45:57.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 14:05:42.0000000</t>
+  </si>
+  <si>
+    <t>G0.TTXX.210605</t>
+  </si>
+  <si>
+    <t>B 9851 UWW</t>
+  </si>
+  <si>
+    <t>FCIU-5970888</t>
+  </si>
+  <si>
+    <t>2021-06-05 16:47:11.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 14:05:26.0000000</t>
+  </si>
+  <si>
+    <t>006862</t>
+  </si>
+  <si>
+    <t>2021-06-05 16:51:58.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 14:05:15.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 17:55:07.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 14:06:01.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>006/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-07 15:19:37.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:36:41.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210607</t>
+  </si>
+  <si>
+    <t>B 9177 TEN</t>
+  </si>
+  <si>
+    <t>005/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-07 22:20:41.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:36:49.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-08 05:21:18.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:37:05.0000000</t>
+  </si>
+  <si>
+    <t>G0.SBXX.210607</t>
+  </si>
+  <si>
+    <t>BE 8114 YA</t>
+  </si>
+  <si>
+    <t>2021-06-07 15:22:06.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:37:15.0000000</t>
+  </si>
+  <si>
+    <t>BE 9756 YU</t>
+  </si>
+  <si>
+    <t>2021-06-08 05:23:04.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:37:26.0000000</t>
+  </si>
+  <si>
+    <t>BE 8139 BK</t>
+  </si>
+  <si>
+    <t>2021-06-07 15:23:58.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:37:35.0000000</t>
+  </si>
+  <si>
+    <t>0009/SCO/TMG/05/2021</t>
+  </si>
+  <si>
+    <t>2021-06-07 22:25:27.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:37:43.0000000</t>
+  </si>
+  <si>
+    <t>013/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-07 22:50:40.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:37:54.0000000</t>
+  </si>
+  <si>
+    <t>B 9514 UWW</t>
+  </si>
+  <si>
+    <t>MSDU-1626853</t>
+  </si>
+  <si>
+    <t>2021-06-07 18:06:21.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:39:00.0000000</t>
+  </si>
+  <si>
+    <t>G0.TTXX.210607</t>
+  </si>
+  <si>
+    <t>B 9389 UWW</t>
+  </si>
+  <si>
+    <t>UETU-2649691</t>
+  </si>
+  <si>
+    <t>2021-06-07 18:32:03.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-07 16:39:11.0000000</t>
+  </si>
+  <si>
+    <t>B 9938 GJ</t>
+  </si>
+  <si>
+    <t>MEDU-2942057</t>
+  </si>
+  <si>
+    <t>2021-06-07 20:55:24.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 08:52:08.0000000</t>
+  </si>
+  <si>
+    <t>BE 9599 AU</t>
+  </si>
+  <si>
+    <t>2021-06-08 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>014/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-08 15:20:52.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:36:53.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210608</t>
+  </si>
+  <si>
+    <t>B 9706 OI</t>
+  </si>
+  <si>
+    <t>004/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-08 15:22:04.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:37:00.0000000</t>
+  </si>
+  <si>
+    <t>017/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-08 15:22:33.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:37:24.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 12:29:36.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:37:08.0000000</t>
+  </si>
+  <si>
+    <t>G0.SBXX.210608</t>
+  </si>
+  <si>
+    <t>2021-06-08 16:12:37.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:37:15.0000000</t>
+  </si>
+  <si>
+    <t>MEDU-5075495</t>
+  </si>
+  <si>
+    <t>2021-06-09 07:55:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:37:34.0000000</t>
+  </si>
+  <si>
+    <t>G0.TTXX.210608</t>
+  </si>
+  <si>
+    <t>B 9004 UWV</t>
+  </si>
+  <si>
+    <t>TGBU-2710795</t>
+  </si>
+  <si>
+    <t>2021-06-09 07:56:57.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:37:42.0000000</t>
+  </si>
+  <si>
+    <t>B 9002 UWV</t>
+  </si>
+  <si>
+    <t>MEDU-5452135</t>
+  </si>
+  <si>
+    <t>2021-06-10 05:01:06.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:37:49.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>032/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-09 14:27:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 15:09:34.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210609</t>
+  </si>
+  <si>
+    <t>B 9308 NXR</t>
+  </si>
+  <si>
+    <t>030/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-09 14:29:45.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 15:09:23.0000000</t>
+  </si>
+  <si>
+    <t>BE 9539 AJ</t>
+  </si>
+  <si>
+    <t>019/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-09 14:31:05.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 15:08:59.0000000</t>
+  </si>
+  <si>
+    <t>B 9274 NEU</t>
+  </si>
+  <si>
+    <t>022/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-09 14:33:02.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 15:08:38.0000000</t>
+  </si>
+  <si>
+    <t>006866</t>
+  </si>
+  <si>
+    <t>2021-06-09 14:33:44.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 15:10:01.0000000</t>
+  </si>
+  <si>
+    <t>G0.SAXX.210609</t>
+  </si>
+  <si>
+    <t>006865</t>
+  </si>
+  <si>
+    <t>2021-06-09 14:34:30.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 15:09:12.0000000</t>
+  </si>
+  <si>
+    <t>B 9001 JEU</t>
+  </si>
+  <si>
+    <t>023/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-09 15:20:26.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-09 15:09:49.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>006868</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:55:50.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:39:33.0000000</t>
+  </si>
+  <si>
+    <t>G0.SAXX.210610</t>
+  </si>
+  <si>
+    <t>BE 9751 YU</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:56:41.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:39:40.0000000</t>
+  </si>
+  <si>
+    <t>G0.SBXX.210610</t>
+  </si>
+  <si>
+    <t>BE 9353 CF</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:57:45.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 14:39:49.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 21:58:36.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 16:58:11.0000000</t>
+  </si>
+  <si>
+    <t>BG 9265 T</t>
+  </si>
+  <si>
+    <t>031/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-10 21:59:30.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 16:58:22.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210610</t>
+  </si>
+  <si>
+    <t>BE 9066 BU</t>
+  </si>
+  <si>
+    <t>027/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-10 15:00:35.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 16:58:33.0000000</t>
+  </si>
+  <si>
+    <t>H 1974 EQ</t>
+  </si>
+  <si>
+    <t>006870</t>
+  </si>
+  <si>
+    <t>2021-06-11 05:02:03.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-10 16:58:41.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 22:21:04.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 15:13:16.0000000</t>
+  </si>
+  <si>
+    <t>G0.SBXX.210611</t>
+  </si>
+  <si>
+    <t>BE 9865 CU</t>
+  </si>
+  <si>
+    <t>2021-06-11 22:21:37.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 15:13:53.0000000</t>
+  </si>
+  <si>
+    <t>006872</t>
+  </si>
+  <si>
+    <t>2021-06-11 15:22:34.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 15:13:38.0000000</t>
+  </si>
+  <si>
+    <t>G0.SAXX.210611</t>
+  </si>
+  <si>
+    <t>041/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-11 15:23:14.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 15:14:52.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210611</t>
+  </si>
+  <si>
+    <t>BE 8712 CU</t>
+  </si>
+  <si>
+    <t>038/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-11 16:53:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 15:14:03.0000000</t>
+  </si>
+  <si>
+    <t>BG 8542 BS</t>
+  </si>
+  <si>
+    <t>037/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-11 16:54:15.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 15:14:13.0000000</t>
+  </si>
+  <si>
+    <t>H 1846 CQ</t>
+  </si>
+  <si>
+    <t>006867</t>
+  </si>
+  <si>
+    <t>2021-06-11 20:16:08.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 15:14:22.0000000</t>
+  </si>
+  <si>
+    <t>H 1922 CQ</t>
+  </si>
+  <si>
+    <t>006864</t>
+  </si>
+  <si>
+    <t>2021-06-12 03:16:59.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-11 15:14:29.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>006873</t>
+  </si>
+  <si>
+    <t>2021-06-12 14:47:47.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 12:59:49.0000000</t>
+  </si>
+  <si>
+    <t>G0.SAXX.210612</t>
+  </si>
+  <si>
+    <t>BE 8929 CU</t>
+  </si>
+  <si>
+    <t>015/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-12 14:48:34.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 12:59:28.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210612</t>
+  </si>
+  <si>
+    <t>BE 8009 DJ</t>
+  </si>
+  <si>
+    <t>021/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-12 07:49:09.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 21:49:49.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 12:59:15.0000000</t>
+  </si>
+  <si>
+    <t>G0.SBXX.210612</t>
+  </si>
+  <si>
+    <t>006875</t>
+  </si>
+  <si>
+    <t>2021-06-12 07:51:07.0000000</t>
+  </si>
+  <si>
+    <t>006876</t>
+  </si>
+  <si>
+    <t>2021-06-12 14:51:59.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 13:00:05.0000000</t>
+  </si>
+  <si>
+    <t>B 9535 NXR</t>
+  </si>
+  <si>
+    <t>020/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-12 14:52:46.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-12 10:01:37.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>006878</t>
+  </si>
+  <si>
+    <t>2021-06-14 14:47:02.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 15:38:51.0000000</t>
+  </si>
+  <si>
+    <t>G0.SAXX.210614</t>
+  </si>
+  <si>
+    <t>006874</t>
+  </si>
+  <si>
+    <t>2021-06-14 21:47:44.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 15:38:59.0000000</t>
+  </si>
+  <si>
+    <t>H 1843 CQ</t>
+  </si>
+  <si>
+    <t>006871</t>
+  </si>
+  <si>
+    <t>2021-06-14 14:48:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 15:41:21.0000000</t>
+  </si>
+  <si>
+    <t>006877</t>
+  </si>
+  <si>
+    <t>2021-06-14 14:48:56.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 15:41:31.0000000</t>
+  </si>
+  <si>
+    <t>D 9538 YU</t>
+  </si>
+  <si>
+    <t>210543</t>
+  </si>
+  <si>
+    <t>2021-06-14 21:50:31.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 15:39:27.0000000</t>
+  </si>
+  <si>
+    <t>G0.ZAXX.210614</t>
+  </si>
+  <si>
+    <t>SPNU 311824-0</t>
+  </si>
+  <si>
+    <t>2021-06-15 03:33:52.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-14 15:41:42.0000000</t>
+  </si>
+  <si>
+    <t>G0.ALXX.210614</t>
+  </si>
+  <si>
+    <t>SPNU 316567-9</t>
+  </si>
+  <si>
+    <t>2021-06-15 03:35:55.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 07:31:10.0000000</t>
+  </si>
+  <si>
+    <t>BE 8217 YM</t>
+  </si>
+  <si>
+    <t>2021-06-15 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>029/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-15 14:39:25.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 14:32:41.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210615</t>
+  </si>
+  <si>
+    <t>039/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-15 14:40:13.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 14:33:06.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 14:40:54.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 15:16:00.0000000</t>
+  </si>
+  <si>
+    <t>G0.SBXX.210615</t>
+  </si>
+  <si>
+    <t>2021-06-15 14:41:32.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 08:04:26.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 14:42:09.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 14:32:54.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 14:42:42.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 08:04:39.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-15 14:43:21.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 08:05:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 04:43:50.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 08:05:10.0000000</t>
+  </si>
+  <si>
+    <t>B 9149 KEH</t>
+  </si>
+  <si>
+    <t>SPNU 306330-0</t>
+  </si>
+  <si>
+    <t>2021-06-15 23:29:18.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 08:04:50.0000000</t>
+  </si>
+  <si>
+    <t>G0.ALXX.210615</t>
+  </si>
+  <si>
+    <t>2021-06-16 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 15:13:11.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 14:02:56.0000000</t>
+  </si>
+  <si>
+    <t>G0.SBXX.210616</t>
+  </si>
+  <si>
+    <t>2021-06-16 15:13:43.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 14:03:06.0000000</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>2021-06-16 15:14:16.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 15:35:20.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 15:14:49.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 14:03:19.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 15:15:18.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 07:26:42.0000000</t>
+  </si>
+  <si>
+    <t>006880</t>
+  </si>
+  <si>
+    <t>2021-06-16 23:50:59.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 07:27:07.0000000</t>
+  </si>
+  <si>
+    <t>G0.SAXX.210616</t>
+  </si>
+  <si>
+    <t>BG 8812 TY</t>
+  </si>
+  <si>
+    <t>040/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-16 17:01:11.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 15:58:53.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210616</t>
+  </si>
+  <si>
+    <t>006879</t>
+  </si>
+  <si>
+    <t>2021-06-16 17:05:06.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-16 15:58:44.0000000</t>
+  </si>
+  <si>
+    <t>071/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-16 18:24:54.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 07:27:21.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-17 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>2021-06-17 15:20:42.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 10:19:16.0000000</t>
+  </si>
+  <si>
+    <t>G0.SBXX.210617</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>2021-06-17 15:21:19.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 10:19:26.0000000</t>
+  </si>
+  <si>
+    <t>BE 9789 AR</t>
+  </si>
+  <si>
+    <t>K210050</t>
+  </si>
+  <si>
+    <t>077/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-17 15:21:53.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 10:19:35.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210617</t>
+  </si>
+  <si>
+    <t>076/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-17 15:22:23.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 10:19:45.0000000</t>
+  </si>
+  <si>
+    <t>006884</t>
+  </si>
+  <si>
+    <t>2021-06-17 15:22:55.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 10:19:56.0000000</t>
+  </si>
+  <si>
+    <t>G0.SAXX.210617</t>
+  </si>
+  <si>
+    <t>006889</t>
+  </si>
+  <si>
+    <t>2021-06-17 15:23:29.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 10:20:07.0000000</t>
+  </si>
+  <si>
+    <t>084/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-17 15:23:56.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 10:20:16.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>006887</t>
+  </si>
+  <si>
+    <t>2021-06-18 14:47:04.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 11:04:18.0000000</t>
+  </si>
+  <si>
+    <t>G0.SAXX.210618</t>
+  </si>
+  <si>
+    <t>091/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-18 15:39:08.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 11:04:28.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210618</t>
+  </si>
+  <si>
+    <t>2021-06-19 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>006890</t>
+  </si>
+  <si>
+    <t>2021-06-19 07:48:41.0000000</t>
+  </si>
+  <si>
+    <t>G0.SAXX.210619</t>
+  </si>
+  <si>
+    <t>078/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-19 07:49:16.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210619</t>
+  </si>
+  <si>
+    <t>097/SJ/LPG/VI/2021</t>
+  </si>
+  <si>
+    <t>2021-06-19 10:04:25.0000000</t>
   </si>
 </sst>
 </file>
@@ -14178,7 +15378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1215"/>
+  <dimension ref="A1:P1327"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -63705,6 +64905,4934 @@
         <v>4693</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216">
+        <v>2303</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1216">
+        <v>14</v>
+      </c>
+      <c r="F1216">
+        <v>10</v>
+      </c>
+      <c r="G1216">
+        <v>1003</v>
+      </c>
+      <c r="H1216">
+        <v>10.34</v>
+      </c>
+      <c r="I1216" t="s">
+        <v>4708</v>
+      </c>
+      <c r="J1216" t="s">
+        <v>4709</v>
+      </c>
+      <c r="K1216" t="s">
+        <v>4710</v>
+      </c>
+      <c r="L1216" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1216">
+        <v>11011</v>
+      </c>
+      <c r="P1216" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217">
+        <v>2304</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1217">
+        <v>14</v>
+      </c>
+      <c r="F1217">
+        <v>10</v>
+      </c>
+      <c r="G1217">
+        <v>1003</v>
+      </c>
+      <c r="H1217">
+        <v>10.9</v>
+      </c>
+      <c r="I1217" t="s">
+        <v>4712</v>
+      </c>
+      <c r="J1217" t="s">
+        <v>4713</v>
+      </c>
+      <c r="K1217" t="s">
+        <v>4714</v>
+      </c>
+      <c r="L1217" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1217">
+        <v>11011</v>
+      </c>
+      <c r="P1217" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218">
+        <v>2305</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1218">
+        <v>14</v>
+      </c>
+      <c r="F1218">
+        <v>10</v>
+      </c>
+      <c r="G1218">
+        <v>1003</v>
+      </c>
+      <c r="H1218">
+        <v>10.470000000000001</v>
+      </c>
+      <c r="I1218" t="s">
+        <v>4715</v>
+      </c>
+      <c r="J1218" t="s">
+        <v>4716</v>
+      </c>
+      <c r="K1218" t="s">
+        <v>4717</v>
+      </c>
+      <c r="L1218" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1218">
+        <v>11011</v>
+      </c>
+      <c r="P1218" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219">
+        <v>2306</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1219">
+        <v>14</v>
+      </c>
+      <c r="F1219">
+        <v>10</v>
+      </c>
+      <c r="G1219">
+        <v>1003</v>
+      </c>
+      <c r="H1219">
+        <v>10.56</v>
+      </c>
+      <c r="I1219" t="s">
+        <v>4718</v>
+      </c>
+      <c r="J1219" t="s">
+        <v>4719</v>
+      </c>
+      <c r="K1219" t="s">
+        <v>4720</v>
+      </c>
+      <c r="L1219" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1219">
+        <v>11011</v>
+      </c>
+      <c r="P1219" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220">
+        <v>2307</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1220">
+        <v>14</v>
+      </c>
+      <c r="F1220">
+        <v>10</v>
+      </c>
+      <c r="G1220">
+        <v>1003</v>
+      </c>
+      <c r="H1220">
+        <v>10.73</v>
+      </c>
+      <c r="I1220" t="s">
+        <v>4722</v>
+      </c>
+      <c r="J1220" t="s">
+        <v>4723</v>
+      </c>
+      <c r="K1220" t="s">
+        <v>4724</v>
+      </c>
+      <c r="L1220" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1220">
+        <v>11011</v>
+      </c>
+      <c r="P1220" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221">
+        <v>2308</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1221">
+        <v>50</v>
+      </c>
+      <c r="F1221">
+        <v>10</v>
+      </c>
+      <c r="G1221">
+        <v>1003</v>
+      </c>
+      <c r="H1221">
+        <v>10.07</v>
+      </c>
+      <c r="I1221" t="s">
+        <v>4726</v>
+      </c>
+      <c r="J1221" t="s">
+        <v>4727</v>
+      </c>
+      <c r="K1221" t="s">
+        <v>4728</v>
+      </c>
+      <c r="L1221" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1221">
+        <v>11011</v>
+      </c>
+      <c r="P1221" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222">
+        <v>2309</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1222">
+        <v>43</v>
+      </c>
+      <c r="F1222">
+        <v>8</v>
+      </c>
+      <c r="G1222">
+        <v>1003</v>
+      </c>
+      <c r="H1222">
+        <v>11.51</v>
+      </c>
+      <c r="I1222" t="s">
+        <v>4729</v>
+      </c>
+      <c r="J1222" t="s">
+        <v>4730</v>
+      </c>
+      <c r="K1222" t="s">
+        <v>4731</v>
+      </c>
+      <c r="L1222" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1222">
+        <v>11011</v>
+      </c>
+      <c r="P1222" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223">
+        <v>2310</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1223">
+        <v>43</v>
+      </c>
+      <c r="F1223">
+        <v>8</v>
+      </c>
+      <c r="G1223">
+        <v>1003</v>
+      </c>
+      <c r="H1223">
+        <v>11.92</v>
+      </c>
+      <c r="I1223" t="s">
+        <v>4733</v>
+      </c>
+      <c r="J1223" t="s">
+        <v>4734</v>
+      </c>
+      <c r="K1223" t="s">
+        <v>4735</v>
+      </c>
+      <c r="L1223" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1223">
+        <v>11011</v>
+      </c>
+      <c r="P1223" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224">
+        <v>2311</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1224">
+        <v>43</v>
+      </c>
+      <c r="F1224">
+        <v>8</v>
+      </c>
+      <c r="G1224">
+        <v>1003</v>
+      </c>
+      <c r="H1224">
+        <v>12.41</v>
+      </c>
+      <c r="I1224" t="s">
+        <v>4736</v>
+      </c>
+      <c r="J1224" t="s">
+        <v>4737</v>
+      </c>
+      <c r="K1224" t="s">
+        <v>4738</v>
+      </c>
+      <c r="L1224" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1224">
+        <v>11011</v>
+      </c>
+      <c r="P1224" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225">
+        <v>2312</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1225">
+        <v>43</v>
+      </c>
+      <c r="F1225">
+        <v>8</v>
+      </c>
+      <c r="G1225">
+        <v>1003</v>
+      </c>
+      <c r="H1225">
+        <v>11.85</v>
+      </c>
+      <c r="I1225" t="s">
+        <v>906</v>
+      </c>
+      <c r="J1225" t="s">
+        <v>4739</v>
+      </c>
+      <c r="K1225" t="s">
+        <v>4740</v>
+      </c>
+      <c r="L1225" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1225">
+        <v>11011</v>
+      </c>
+      <c r="P1225" t="s">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226">
+        <v>2313</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>4546</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1226">
+        <v>43</v>
+      </c>
+      <c r="F1226">
+        <v>8</v>
+      </c>
+      <c r="G1226">
+        <v>1003</v>
+      </c>
+      <c r="H1226">
+        <v>11.91</v>
+      </c>
+      <c r="I1226" t="s">
+        <v>882</v>
+      </c>
+      <c r="J1226" t="s">
+        <v>4742</v>
+      </c>
+      <c r="K1226" t="s">
+        <v>4743</v>
+      </c>
+      <c r="L1226" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1226">
+        <v>11011</v>
+      </c>
+      <c r="P1226" t="s">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227">
+        <v>2314</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>3626</v>
+      </c>
+      <c r="E1227">
+        <v>6</v>
+      </c>
+      <c r="F1227">
+        <v>4</v>
+      </c>
+      <c r="G1227">
+        <v>1003</v>
+      </c>
+      <c r="H1227">
+        <v>12.08</v>
+      </c>
+      <c r="I1227" t="s">
+        <v>4745</v>
+      </c>
+      <c r="J1227" t="s">
+        <v>4746</v>
+      </c>
+      <c r="K1227" t="s">
+        <v>4747</v>
+      </c>
+      <c r="L1227" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1227">
+        <v>11009</v>
+      </c>
+      <c r="P1227" t="s">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228">
+        <v>2316</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1228">
+        <v>43</v>
+      </c>
+      <c r="F1228">
+        <v>8</v>
+      </c>
+      <c r="G1228">
+        <v>1003</v>
+      </c>
+      <c r="H1228">
+        <v>11.91</v>
+      </c>
+      <c r="I1228" t="s">
+        <v>933</v>
+      </c>
+      <c r="J1228" t="s">
+        <v>4749</v>
+      </c>
+      <c r="K1228" t="s">
+        <v>4750</v>
+      </c>
+      <c r="L1228" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1228">
+        <v>11011</v>
+      </c>
+      <c r="P1228" t="s">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229">
+        <v>2317</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1229">
+        <v>43</v>
+      </c>
+      <c r="F1229">
+        <v>8</v>
+      </c>
+      <c r="G1229">
+        <v>1003</v>
+      </c>
+      <c r="H1229">
+        <v>11.029999999999999</v>
+      </c>
+      <c r="I1229" t="s">
+        <v>886</v>
+      </c>
+      <c r="J1229" t="s">
+        <v>4751</v>
+      </c>
+      <c r="K1229" t="s">
+        <v>4752</v>
+      </c>
+      <c r="L1229" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1229">
+        <v>11011</v>
+      </c>
+      <c r="P1229" t="s">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230">
+        <v>2318</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1230">
+        <v>43</v>
+      </c>
+      <c r="F1230">
+        <v>8</v>
+      </c>
+      <c r="G1230">
+        <v>1003</v>
+      </c>
+      <c r="H1230">
+        <v>11.16</v>
+      </c>
+      <c r="I1230" t="s">
+        <v>890</v>
+      </c>
+      <c r="J1230" t="s">
+        <v>4753</v>
+      </c>
+      <c r="K1230" t="s">
+        <v>4754</v>
+      </c>
+      <c r="L1230" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1230">
+        <v>11011</v>
+      </c>
+      <c r="P1230" t="s">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231">
+        <v>2319</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1231">
+        <v>14</v>
+      </c>
+      <c r="F1231">
+        <v>10</v>
+      </c>
+      <c r="G1231">
+        <v>1003</v>
+      </c>
+      <c r="H1231">
+        <v>10.529999999999999</v>
+      </c>
+      <c r="I1231" t="s">
+        <v>4755</v>
+      </c>
+      <c r="J1231" t="s">
+        <v>4756</v>
+      </c>
+      <c r="K1231" t="s">
+        <v>4757</v>
+      </c>
+      <c r="L1231" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1231">
+        <v>11011</v>
+      </c>
+      <c r="P1231" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232">
+        <v>2320</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E1232">
+        <v>44</v>
+      </c>
+      <c r="F1232">
+        <v>19</v>
+      </c>
+      <c r="G1232">
+        <v>1003</v>
+      </c>
+      <c r="H1232">
+        <v>10.34</v>
+      </c>
+      <c r="I1232" t="s">
+        <v>4758</v>
+      </c>
+      <c r="J1232" t="s">
+        <v>4759</v>
+      </c>
+      <c r="K1232" t="s">
+        <v>4760</v>
+      </c>
+      <c r="L1232" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1232">
+        <v>11097</v>
+      </c>
+      <c r="P1232" t="s">
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233">
+        <v>2322</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1233">
+        <v>43</v>
+      </c>
+      <c r="F1233">
+        <v>8</v>
+      </c>
+      <c r="G1233">
+        <v>1003</v>
+      </c>
+      <c r="H1233">
+        <v>11.32</v>
+      </c>
+      <c r="I1233" t="s">
+        <v>894</v>
+      </c>
+      <c r="J1233" t="s">
+        <v>4762</v>
+      </c>
+      <c r="K1233" t="s">
+        <v>4763</v>
+      </c>
+      <c r="L1233" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1233">
+        <v>11011</v>
+      </c>
+      <c r="P1233" t="s">
+        <v>4744</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234">
+        <v>2323</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>4764</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1234">
+        <v>14</v>
+      </c>
+      <c r="F1234">
+        <v>10</v>
+      </c>
+      <c r="G1234">
+        <v>1003</v>
+      </c>
+      <c r="H1234">
+        <v>10.859999999999999</v>
+      </c>
+      <c r="I1234" t="s">
+        <v>4765</v>
+      </c>
+      <c r="J1234" t="s">
+        <v>4766</v>
+      </c>
+      <c r="K1234" t="s">
+        <v>4767</v>
+      </c>
+      <c r="L1234" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1234">
+        <v>11011</v>
+      </c>
+      <c r="P1234" t="s">
+        <v>4768</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235">
+        <v>2324</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1235">
+        <v>5</v>
+      </c>
+      <c r="F1235">
+        <v>3</v>
+      </c>
+      <c r="G1235">
+        <v>1003</v>
+      </c>
+      <c r="H1235">
+        <v>11.789999999999999</v>
+      </c>
+      <c r="I1235" t="s">
+        <v>4770</v>
+      </c>
+      <c r="J1235" t="s">
+        <v>4771</v>
+      </c>
+      <c r="K1235" t="s">
+        <v>4772</v>
+      </c>
+      <c r="L1235" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1235">
+        <v>11009</v>
+      </c>
+      <c r="P1235" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236">
+        <v>2325</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1236">
+        <v>14</v>
+      </c>
+      <c r="F1236">
+        <v>10</v>
+      </c>
+      <c r="G1236">
+        <v>1003</v>
+      </c>
+      <c r="H1236">
+        <v>10.699999999999999</v>
+      </c>
+      <c r="I1236" t="s">
+        <v>4774</v>
+      </c>
+      <c r="J1236" t="s">
+        <v>4775</v>
+      </c>
+      <c r="K1236" t="s">
+        <v>4776</v>
+      </c>
+      <c r="L1236" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1236">
+        <v>11011</v>
+      </c>
+      <c r="P1236" t="s">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237">
+        <v>2326</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1237">
+        <v>43</v>
+      </c>
+      <c r="F1237">
+        <v>8</v>
+      </c>
+      <c r="G1237">
+        <v>1003</v>
+      </c>
+      <c r="H1237">
+        <v>11.779999999999999</v>
+      </c>
+      <c r="I1237" t="s">
+        <v>917</v>
+      </c>
+      <c r="J1237" t="s">
+        <v>4778</v>
+      </c>
+      <c r="K1237" t="s">
+        <v>4779</v>
+      </c>
+      <c r="L1237" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1237">
+        <v>11011</v>
+      </c>
+      <c r="P1237" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238">
+        <v>2327</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1238">
+        <v>5</v>
+      </c>
+      <c r="F1238">
+        <v>3</v>
+      </c>
+      <c r="G1238">
+        <v>1003</v>
+      </c>
+      <c r="H1238">
+        <v>11.49</v>
+      </c>
+      <c r="I1238" t="s">
+        <v>4781</v>
+      </c>
+      <c r="J1238" t="s">
+        <v>4782</v>
+      </c>
+      <c r="K1238" t="s">
+        <v>4783</v>
+      </c>
+      <c r="L1238" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1238">
+        <v>11009</v>
+      </c>
+      <c r="P1238" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239">
+        <v>2328</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>4784</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E1239">
+        <v>18</v>
+      </c>
+      <c r="F1239">
+        <v>16</v>
+      </c>
+      <c r="G1239">
+        <v>1003</v>
+      </c>
+      <c r="H1239">
+        <v>10.08</v>
+      </c>
+      <c r="I1239" t="s">
+        <v>4786</v>
+      </c>
+      <c r="J1239" t="s">
+        <v>4787</v>
+      </c>
+      <c r="K1239" t="s">
+        <v>4788</v>
+      </c>
+      <c r="L1239" t="s">
+        <v>233</v>
+      </c>
+      <c r="N1239">
+        <v>11012</v>
+      </c>
+      <c r="P1239" t="s">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240">
+        <v>2329</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>4790</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E1240">
+        <v>18</v>
+      </c>
+      <c r="F1240">
+        <v>16</v>
+      </c>
+      <c r="G1240">
+        <v>1003</v>
+      </c>
+      <c r="H1240">
+        <v>10.109999999999999</v>
+      </c>
+      <c r="I1240" t="s">
+        <v>4791</v>
+      </c>
+      <c r="J1240" t="s">
+        <v>4792</v>
+      </c>
+      <c r="K1240" t="s">
+        <v>4793</v>
+      </c>
+      <c r="L1240" t="s">
+        <v>233</v>
+      </c>
+      <c r="N1240">
+        <v>11012</v>
+      </c>
+      <c r="P1240" t="s">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241">
+        <v>2330</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1241">
+        <v>5</v>
+      </c>
+      <c r="F1241">
+        <v>3</v>
+      </c>
+      <c r="G1241">
+        <v>1003</v>
+      </c>
+      <c r="H1241">
+        <v>11.619999999999999</v>
+      </c>
+      <c r="I1241" t="s">
+        <v>4794</v>
+      </c>
+      <c r="J1241" t="s">
+        <v>4795</v>
+      </c>
+      <c r="K1241" t="s">
+        <v>4796</v>
+      </c>
+      <c r="L1241" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1241">
+        <v>11009</v>
+      </c>
+      <c r="P1241" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242">
+        <v>2331</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1242">
+        <v>43</v>
+      </c>
+      <c r="F1242">
+        <v>8</v>
+      </c>
+      <c r="G1242">
+        <v>1003</v>
+      </c>
+      <c r="H1242">
+        <v>12.25</v>
+      </c>
+      <c r="I1242" t="s">
+        <v>929</v>
+      </c>
+      <c r="J1242" t="s">
+        <v>4797</v>
+      </c>
+      <c r="K1242" t="s">
+        <v>4798</v>
+      </c>
+      <c r="L1242" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1242">
+        <v>11011</v>
+      </c>
+      <c r="P1242" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243">
+        <v>2332</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1243">
+        <v>14</v>
+      </c>
+      <c r="F1243">
+        <v>10</v>
+      </c>
+      <c r="G1243">
+        <v>1004</v>
+      </c>
+      <c r="H1243">
+        <v>9.9399999999999995</v>
+      </c>
+      <c r="I1243" t="s">
+        <v>4800</v>
+      </c>
+      <c r="J1243" t="s">
+        <v>4801</v>
+      </c>
+      <c r="K1243" t="s">
+        <v>4802</v>
+      </c>
+      <c r="L1243" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1243">
+        <v>11011</v>
+      </c>
+      <c r="P1243" t="s">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244">
+        <v>2333</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>4804</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1244">
+        <v>14</v>
+      </c>
+      <c r="F1244">
+        <v>10</v>
+      </c>
+      <c r="G1244">
+        <v>1004</v>
+      </c>
+      <c r="H1244">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="I1244" t="s">
+        <v>4805</v>
+      </c>
+      <c r="J1244" t="s">
+        <v>4806</v>
+      </c>
+      <c r="K1244" t="s">
+        <v>4807</v>
+      </c>
+      <c r="L1244" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1244">
+        <v>11011</v>
+      </c>
+      <c r="P1244" t="s">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245">
+        <v>2334</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1245">
+        <v>43</v>
+      </c>
+      <c r="F1245">
+        <v>8</v>
+      </c>
+      <c r="G1245">
+        <v>1004</v>
+      </c>
+      <c r="H1245">
+        <v>11.460000000000001</v>
+      </c>
+      <c r="I1245" t="s">
+        <v>914</v>
+      </c>
+      <c r="J1245" t="s">
+        <v>4808</v>
+      </c>
+      <c r="K1245" t="s">
+        <v>4809</v>
+      </c>
+      <c r="L1245" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1245">
+        <v>11011</v>
+      </c>
+      <c r="P1245" t="s">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246">
+        <v>2335</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>4811</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1246">
+        <v>43</v>
+      </c>
+      <c r="F1246">
+        <v>8</v>
+      </c>
+      <c r="G1246">
+        <v>1004</v>
+      </c>
+      <c r="H1246">
+        <v>12.210000000000001</v>
+      </c>
+      <c r="I1246" t="s">
+        <v>941</v>
+      </c>
+      <c r="J1246" t="s">
+        <v>4812</v>
+      </c>
+      <c r="K1246" t="s">
+        <v>4813</v>
+      </c>
+      <c r="L1246" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1246">
+        <v>11011</v>
+      </c>
+      <c r="P1246" t="s">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247">
+        <v>2336</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>4814</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1247">
+        <v>43</v>
+      </c>
+      <c r="F1247">
+        <v>8</v>
+      </c>
+      <c r="G1247">
+        <v>1004</v>
+      </c>
+      <c r="H1247">
+        <v>11.58</v>
+      </c>
+      <c r="I1247" t="s">
+        <v>945</v>
+      </c>
+      <c r="J1247" t="s">
+        <v>4815</v>
+      </c>
+      <c r="K1247" t="s">
+        <v>4816</v>
+      </c>
+      <c r="L1247" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1247">
+        <v>11011</v>
+      </c>
+      <c r="P1247" t="s">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248">
+        <v>2337</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>4817</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1248">
+        <v>43</v>
+      </c>
+      <c r="F1248">
+        <v>8</v>
+      </c>
+      <c r="G1248">
+        <v>1004</v>
+      </c>
+      <c r="H1248">
+        <v>11.390000000000001</v>
+      </c>
+      <c r="I1248" t="s">
+        <v>911</v>
+      </c>
+      <c r="J1248" t="s">
+        <v>4818</v>
+      </c>
+      <c r="K1248" t="s">
+        <v>4819</v>
+      </c>
+      <c r="L1248" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1248">
+        <v>11011</v>
+      </c>
+      <c r="P1248" t="s">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249">
+        <v>2338</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>897</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>4451</v>
+      </c>
+      <c r="E1249">
+        <v>20</v>
+      </c>
+      <c r="F1249">
+        <v>24</v>
+      </c>
+      <c r="G1249">
+        <v>1004</v>
+      </c>
+      <c r="H1249">
+        <v>11.15</v>
+      </c>
+      <c r="I1249" t="s">
+        <v>4820</v>
+      </c>
+      <c r="J1249" t="s">
+        <v>4821</v>
+      </c>
+      <c r="K1249" t="s">
+        <v>4822</v>
+      </c>
+      <c r="L1249" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1249">
+        <v>11009</v>
+      </c>
+      <c r="P1249" t="s">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250">
+        <v>2339</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1250">
+        <v>14</v>
+      </c>
+      <c r="F1250">
+        <v>10</v>
+      </c>
+      <c r="G1250">
+        <v>1004</v>
+      </c>
+      <c r="H1250">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="I1250" t="s">
+        <v>4823</v>
+      </c>
+      <c r="J1250" t="s">
+        <v>4824</v>
+      </c>
+      <c r="K1250" t="s">
+        <v>4825</v>
+      </c>
+      <c r="L1250" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1250">
+        <v>11011</v>
+      </c>
+      <c r="P1250" t="s">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251">
+        <v>2340</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>4826</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E1251">
+        <v>18</v>
+      </c>
+      <c r="F1251">
+        <v>16</v>
+      </c>
+      <c r="G1251">
+        <v>1004</v>
+      </c>
+      <c r="H1251">
+        <v>10.24</v>
+      </c>
+      <c r="I1251" t="s">
+        <v>4827</v>
+      </c>
+      <c r="J1251" t="s">
+        <v>4828</v>
+      </c>
+      <c r="K1251" t="s">
+        <v>4829</v>
+      </c>
+      <c r="L1251" t="s">
+        <v>3333</v>
+      </c>
+      <c r="N1251">
+        <v>11012</v>
+      </c>
+      <c r="P1251" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252">
+        <v>2341</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>4831</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E1252">
+        <v>18</v>
+      </c>
+      <c r="F1252">
+        <v>16</v>
+      </c>
+      <c r="G1252">
+        <v>1004</v>
+      </c>
+      <c r="H1252">
+        <v>10.83</v>
+      </c>
+      <c r="I1252" t="s">
+        <v>4832</v>
+      </c>
+      <c r="J1252" t="s">
+        <v>4833</v>
+      </c>
+      <c r="K1252" t="s">
+        <v>4834</v>
+      </c>
+      <c r="L1252" t="s">
+        <v>3333</v>
+      </c>
+      <c r="N1252">
+        <v>11012</v>
+      </c>
+      <c r="P1252" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253">
+        <v>2342</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>4835</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E1253">
+        <v>18</v>
+      </c>
+      <c r="F1253">
+        <v>16</v>
+      </c>
+      <c r="G1253">
+        <v>1004</v>
+      </c>
+      <c r="H1253">
+        <v>10.6</v>
+      </c>
+      <c r="I1253" t="s">
+        <v>4836</v>
+      </c>
+      <c r="J1253" t="s">
+        <v>4837</v>
+      </c>
+      <c r="K1253" t="s">
+        <v>4838</v>
+      </c>
+      <c r="L1253" t="s">
+        <v>3333</v>
+      </c>
+      <c r="N1253">
+        <v>11011</v>
+      </c>
+      <c r="P1253" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254">
+        <v>2343</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>4839</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>4840</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1254">
+        <v>14</v>
+      </c>
+      <c r="F1254">
+        <v>10</v>
+      </c>
+      <c r="G1254">
+        <v>1004</v>
+      </c>
+      <c r="H1254">
+        <v>10.75</v>
+      </c>
+      <c r="I1254" t="s">
+        <v>4841</v>
+      </c>
+      <c r="J1254" t="s">
+        <v>4842</v>
+      </c>
+      <c r="K1254" t="s">
+        <v>4843</v>
+      </c>
+      <c r="L1254" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1254">
+        <v>11011</v>
+      </c>
+      <c r="P1254" t="s">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255">
+        <v>2344</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>4845</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>4840</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1255">
+        <v>14</v>
+      </c>
+      <c r="F1255">
+        <v>10</v>
+      </c>
+      <c r="G1255">
+        <v>1004</v>
+      </c>
+      <c r="H1255">
+        <v>10.630000000000001</v>
+      </c>
+      <c r="I1255" t="s">
+        <v>4846</v>
+      </c>
+      <c r="J1255" t="s">
+        <v>4847</v>
+      </c>
+      <c r="K1255" t="s">
+        <v>4848</v>
+      </c>
+      <c r="L1255" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1255">
+        <v>11011</v>
+      </c>
+      <c r="P1255" t="s">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256">
+        <v>2345</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>4840</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1256">
+        <v>14</v>
+      </c>
+      <c r="F1256">
+        <v>10</v>
+      </c>
+      <c r="G1256">
+        <v>1004</v>
+      </c>
+      <c r="H1256">
+        <v>10.73</v>
+      </c>
+      <c r="I1256" t="s">
+        <v>4849</v>
+      </c>
+      <c r="J1256" t="s">
+        <v>4850</v>
+      </c>
+      <c r="K1256" t="s">
+        <v>4851</v>
+      </c>
+      <c r="L1256" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1256">
+        <v>11011</v>
+      </c>
+      <c r="P1256" t="s">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257">
+        <v>2346</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>4840</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1257">
+        <v>43</v>
+      </c>
+      <c r="F1257">
+        <v>8</v>
+      </c>
+      <c r="G1257">
+        <v>1004</v>
+      </c>
+      <c r="H1257">
+        <v>12.41</v>
+      </c>
+      <c r="I1257" t="s">
+        <v>980</v>
+      </c>
+      <c r="J1257" t="s">
+        <v>4852</v>
+      </c>
+      <c r="K1257" t="s">
+        <v>4853</v>
+      </c>
+      <c r="L1257" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1257">
+        <v>11011</v>
+      </c>
+      <c r="P1257" t="s">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258">
+        <v>2347</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>4840</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1258">
+        <v>43</v>
+      </c>
+      <c r="F1258">
+        <v>8</v>
+      </c>
+      <c r="G1258">
+        <v>1004</v>
+      </c>
+      <c r="H1258">
+        <v>11.779999999999999</v>
+      </c>
+      <c r="I1258" t="s">
+        <v>937</v>
+      </c>
+      <c r="J1258" t="s">
+        <v>4855</v>
+      </c>
+      <c r="K1258" t="s">
+        <v>4856</v>
+      </c>
+      <c r="L1258" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1258">
+        <v>11011</v>
+      </c>
+      <c r="P1258" t="s">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259">
+        <v>2350</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>4831</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>4840</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E1259">
+        <v>18</v>
+      </c>
+      <c r="F1259">
+        <v>16</v>
+      </c>
+      <c r="G1259">
+        <v>1004</v>
+      </c>
+      <c r="H1259">
+        <v>10.6</v>
+      </c>
+      <c r="I1259" t="s">
+        <v>4857</v>
+      </c>
+      <c r="J1259" t="s">
+        <v>4858</v>
+      </c>
+      <c r="K1259" t="s">
+        <v>4859</v>
+      </c>
+      <c r="L1259" t="s">
+        <v>3333</v>
+      </c>
+      <c r="N1259">
+        <v>11012</v>
+      </c>
+      <c r="P1259" t="s">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260">
+        <v>2351</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>4861</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>4840</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E1260">
+        <v>18</v>
+      </c>
+      <c r="F1260">
+        <v>16</v>
+      </c>
+      <c r="G1260">
+        <v>1004</v>
+      </c>
+      <c r="H1260">
+        <v>10.470000000000001</v>
+      </c>
+      <c r="I1260" t="s">
+        <v>4862</v>
+      </c>
+      <c r="J1260" t="s">
+        <v>4863</v>
+      </c>
+      <c r="K1260" t="s">
+        <v>4864</v>
+      </c>
+      <c r="L1260" t="s">
+        <v>3333</v>
+      </c>
+      <c r="N1260">
+        <v>11012</v>
+      </c>
+      <c r="P1260" t="s">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261">
+        <v>2352</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>4865</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>4840</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E1261">
+        <v>18</v>
+      </c>
+      <c r="F1261">
+        <v>16</v>
+      </c>
+      <c r="G1261">
+        <v>1004</v>
+      </c>
+      <c r="H1261">
+        <v>10.44</v>
+      </c>
+      <c r="I1261" t="s">
+        <v>4866</v>
+      </c>
+      <c r="J1261" t="s">
+        <v>4867</v>
+      </c>
+      <c r="K1261" t="s">
+        <v>4868</v>
+      </c>
+      <c r="L1261" t="s">
+        <v>3333</v>
+      </c>
+      <c r="N1261">
+        <v>11012</v>
+      </c>
+      <c r="P1261" t="s">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262">
+        <v>2353</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>4869</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1262">
+        <v>14</v>
+      </c>
+      <c r="F1262">
+        <v>10</v>
+      </c>
+      <c r="G1262">
+        <v>1004</v>
+      </c>
+      <c r="H1262">
+        <v>10.6</v>
+      </c>
+      <c r="I1262" t="s">
+        <v>4870</v>
+      </c>
+      <c r="J1262" t="s">
+        <v>4871</v>
+      </c>
+      <c r="K1262" t="s">
+        <v>4872</v>
+      </c>
+      <c r="L1262" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1262">
+        <v>11011</v>
+      </c>
+      <c r="P1262" t="s">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263">
+        <v>2354</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>4874</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>4869</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1263">
+        <v>14</v>
+      </c>
+      <c r="F1263">
+        <v>10</v>
+      </c>
+      <c r="G1263">
+        <v>1004</v>
+      </c>
+      <c r="H1263">
+        <v>10.630000000000001</v>
+      </c>
+      <c r="I1263" t="s">
+        <v>4875</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>4876</v>
+      </c>
+      <c r="K1263" t="s">
+        <v>4877</v>
+      </c>
+      <c r="L1263" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1263">
+        <v>11011</v>
+      </c>
+      <c r="P1263" t="s">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264">
+        <v>2355</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>4878</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>4869</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1264">
+        <v>14</v>
+      </c>
+      <c r="F1264">
+        <v>10</v>
+      </c>
+      <c r="G1264">
+        <v>1004</v>
+      </c>
+      <c r="H1264">
+        <v>10.529999999999999</v>
+      </c>
+      <c r="I1264" t="s">
+        <v>4879</v>
+      </c>
+      <c r="J1264" t="s">
+        <v>4880</v>
+      </c>
+      <c r="K1264" t="s">
+        <v>4881</v>
+      </c>
+      <c r="L1264" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1264">
+        <v>11011</v>
+      </c>
+      <c r="P1264" t="s">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265">
+        <v>2357</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>4882</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>4869</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1265">
+        <v>14</v>
+      </c>
+      <c r="F1265">
+        <v>10</v>
+      </c>
+      <c r="G1265">
+        <v>1004</v>
+      </c>
+      <c r="H1265">
+        <v>10.9</v>
+      </c>
+      <c r="I1265" t="s">
+        <v>4883</v>
+      </c>
+      <c r="J1265" t="s">
+        <v>4884</v>
+      </c>
+      <c r="K1265" t="s">
+        <v>4885</v>
+      </c>
+      <c r="L1265" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1265">
+        <v>11011</v>
+      </c>
+      <c r="P1265" t="s">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266">
+        <v>2358</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>4869</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1266">
+        <v>5</v>
+      </c>
+      <c r="F1266">
+        <v>3</v>
+      </c>
+      <c r="G1266">
+        <v>1004</v>
+      </c>
+      <c r="H1266">
+        <v>11.619999999999999</v>
+      </c>
+      <c r="I1266" t="s">
+        <v>4886</v>
+      </c>
+      <c r="J1266" t="s">
+        <v>4887</v>
+      </c>
+      <c r="K1266" t="s">
+        <v>4888</v>
+      </c>
+      <c r="L1266" t="s">
+        <v>3870</v>
+      </c>
+      <c r="N1266">
+        <v>11009</v>
+      </c>
+      <c r="P1266" t="s">
+        <v>4889</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267">
+        <v>2359</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>4869</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1267">
+        <v>5</v>
+      </c>
+      <c r="F1267">
+        <v>3</v>
+      </c>
+      <c r="G1267">
+        <v>1004</v>
+      </c>
+      <c r="H1267">
+        <v>11.220000000000001</v>
+      </c>
+      <c r="I1267" t="s">
+        <v>4890</v>
+      </c>
+      <c r="J1267" t="s">
+        <v>4891</v>
+      </c>
+      <c r="K1267" t="s">
+        <v>4892</v>
+      </c>
+      <c r="L1267" t="s">
+        <v>3870</v>
+      </c>
+      <c r="N1267">
+        <v>11009</v>
+      </c>
+      <c r="P1267" t="s">
+        <v>4889</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268">
+        <v>2360</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>4893</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>4869</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1268">
+        <v>14</v>
+      </c>
+      <c r="F1268">
+        <v>10</v>
+      </c>
+      <c r="G1268">
+        <v>1004</v>
+      </c>
+      <c r="H1268">
+        <v>10.300000000000001</v>
+      </c>
+      <c r="I1268" t="s">
+        <v>4894</v>
+      </c>
+      <c r="J1268" t="s">
+        <v>4895</v>
+      </c>
+      <c r="K1268" t="s">
+        <v>4896</v>
+      </c>
+      <c r="L1268" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1268">
+        <v>11011</v>
+      </c>
+      <c r="P1268" t="s">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269">
+        <v>2362</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>4897</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1269">
+        <v>5</v>
+      </c>
+      <c r="F1269">
+        <v>3</v>
+      </c>
+      <c r="G1269">
+        <v>1004</v>
+      </c>
+      <c r="H1269">
+        <v>11.69</v>
+      </c>
+      <c r="I1269" t="s">
+        <v>4898</v>
+      </c>
+      <c r="J1269" t="s">
+        <v>4899</v>
+      </c>
+      <c r="K1269" t="s">
+        <v>4900</v>
+      </c>
+      <c r="L1269" t="s">
+        <v>3870</v>
+      </c>
+      <c r="N1269">
+        <v>11009</v>
+      </c>
+      <c r="P1269" t="s">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270">
+        <v>2363</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>4902</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>4897</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1270">
+        <v>43</v>
+      </c>
+      <c r="F1270">
+        <v>8</v>
+      </c>
+      <c r="G1270">
+        <v>1004</v>
+      </c>
+      <c r="H1270">
+        <v>12.109999999999999</v>
+      </c>
+      <c r="I1270" t="s">
+        <v>963</v>
+      </c>
+      <c r="J1270" t="s">
+        <v>4903</v>
+      </c>
+      <c r="K1270" t="s">
+        <v>4904</v>
+      </c>
+      <c r="L1270" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1270">
+        <v>11011</v>
+      </c>
+      <c r="P1270" t="s">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271">
+        <v>2364</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>4906</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>4897</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1271">
+        <v>43</v>
+      </c>
+      <c r="F1271">
+        <v>8</v>
+      </c>
+      <c r="G1271">
+        <v>1004</v>
+      </c>
+      <c r="H1271">
+        <v>11.779999999999999</v>
+      </c>
+      <c r="I1271" t="s">
+        <v>967</v>
+      </c>
+      <c r="J1271" t="s">
+        <v>4907</v>
+      </c>
+      <c r="K1271" t="s">
+        <v>4908</v>
+      </c>
+      <c r="L1271" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1271">
+        <v>11011</v>
+      </c>
+      <c r="P1271" t="s">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272">
+        <v>2365</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>4897</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1272">
+        <v>43</v>
+      </c>
+      <c r="F1272">
+        <v>8</v>
+      </c>
+      <c r="G1272">
+        <v>1004</v>
+      </c>
+      <c r="H1272">
+        <v>12.039999999999999</v>
+      </c>
+      <c r="I1272" t="s">
+        <v>976</v>
+      </c>
+      <c r="J1272" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1272" t="s">
+        <v>4910</v>
+      </c>
+      <c r="L1272" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1272">
+        <v>11011</v>
+      </c>
+      <c r="P1272" t="s">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273">
+        <v>2366</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>4911</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>4897</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1273">
+        <v>14</v>
+      </c>
+      <c r="F1273">
+        <v>10</v>
+      </c>
+      <c r="G1273">
+        <v>1004</v>
+      </c>
+      <c r="H1273">
+        <v>10.699999999999999</v>
+      </c>
+      <c r="I1273" t="s">
+        <v>4912</v>
+      </c>
+      <c r="J1273" t="s">
+        <v>4913</v>
+      </c>
+      <c r="K1273" t="s">
+        <v>4914</v>
+      </c>
+      <c r="L1273" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1273">
+        <v>11011</v>
+      </c>
+      <c r="P1273" t="s">
+        <v>4915</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274">
+        <v>2367</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>4916</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>4897</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1274">
+        <v>14</v>
+      </c>
+      <c r="F1274">
+        <v>10</v>
+      </c>
+      <c r="G1274">
+        <v>1004</v>
+      </c>
+      <c r="H1274">
+        <v>10.470000000000001</v>
+      </c>
+      <c r="I1274" t="s">
+        <v>4917</v>
+      </c>
+      <c r="J1274" t="s">
+        <v>4918</v>
+      </c>
+      <c r="K1274" t="s">
+        <v>4919</v>
+      </c>
+      <c r="L1274" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1274">
+        <v>11011</v>
+      </c>
+      <c r="P1274" t="s">
+        <v>4915</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275">
+        <v>2368</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>4920</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>4897</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1275">
+        <v>5</v>
+      </c>
+      <c r="F1275">
+        <v>3</v>
+      </c>
+      <c r="G1275">
+        <v>1004</v>
+      </c>
+      <c r="H1275">
+        <v>11.59</v>
+      </c>
+      <c r="I1275" t="s">
+        <v>4921</v>
+      </c>
+      <c r="J1275" t="s">
+        <v>4922</v>
+      </c>
+      <c r="K1275" t="s">
+        <v>4923</v>
+      </c>
+      <c r="L1275" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1275">
+        <v>11009</v>
+      </c>
+      <c r="P1275" t="s">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276">
+        <v>2370</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>4924</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1276">
+        <v>43</v>
+      </c>
+      <c r="F1276">
+        <v>8</v>
+      </c>
+      <c r="G1276">
+        <v>1004</v>
+      </c>
+      <c r="H1276">
+        <v>11</v>
+      </c>
+      <c r="I1276" t="s">
+        <v>959</v>
+      </c>
+      <c r="J1276" t="s">
+        <v>4925</v>
+      </c>
+      <c r="K1276" t="s">
+        <v>4926</v>
+      </c>
+      <c r="L1276" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1276">
+        <v>11011</v>
+      </c>
+      <c r="P1276" t="s">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277">
+        <v>2371</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>4928</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>4924</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1277">
+        <v>43</v>
+      </c>
+      <c r="F1277">
+        <v>8</v>
+      </c>
+      <c r="G1277">
+        <v>1004</v>
+      </c>
+      <c r="H1277">
+        <v>12.25</v>
+      </c>
+      <c r="I1277" t="s">
+        <v>955</v>
+      </c>
+      <c r="J1277" t="s">
+        <v>4929</v>
+      </c>
+      <c r="K1277" t="s">
+        <v>4930</v>
+      </c>
+      <c r="L1277" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1277">
+        <v>11011</v>
+      </c>
+      <c r="P1277" t="s">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278">
+        <v>2372</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>4924</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1278">
+        <v>5</v>
+      </c>
+      <c r="F1278">
+        <v>3</v>
+      </c>
+      <c r="G1278">
+        <v>1004</v>
+      </c>
+      <c r="H1278">
+        <v>11.779999999999999</v>
+      </c>
+      <c r="I1278" t="s">
+        <v>4931</v>
+      </c>
+      <c r="J1278" t="s">
+        <v>4932</v>
+      </c>
+      <c r="K1278" t="s">
+        <v>4933</v>
+      </c>
+      <c r="L1278" t="s">
+        <v>3870</v>
+      </c>
+      <c r="N1278">
+        <v>11009</v>
+      </c>
+      <c r="P1278" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279">
+        <v>2373</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>4924</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1279">
+        <v>14</v>
+      </c>
+      <c r="F1279">
+        <v>10</v>
+      </c>
+      <c r="G1279">
+        <v>1004</v>
+      </c>
+      <c r="H1279">
+        <v>11</v>
+      </c>
+      <c r="I1279" t="s">
+        <v>4935</v>
+      </c>
+      <c r="J1279" t="s">
+        <v>4936</v>
+      </c>
+      <c r="K1279" t="s">
+        <v>4937</v>
+      </c>
+      <c r="L1279" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1279">
+        <v>11011</v>
+      </c>
+      <c r="P1279" t="s">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280">
+        <v>2374</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>4939</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>4924</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1280">
+        <v>14</v>
+      </c>
+      <c r="F1280">
+        <v>10</v>
+      </c>
+      <c r="G1280">
+        <v>1004</v>
+      </c>
+      <c r="H1280">
+        <v>11.779999999999999</v>
+      </c>
+      <c r="I1280" t="s">
+        <v>4940</v>
+      </c>
+      <c r="J1280" t="s">
+        <v>4941</v>
+      </c>
+      <c r="K1280" t="s">
+        <v>4942</v>
+      </c>
+      <c r="L1280" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1280">
+        <v>11011</v>
+      </c>
+      <c r="P1280" t="s">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281">
+        <v>2375</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>4943</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>4924</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1281">
+        <v>14</v>
+      </c>
+      <c r="F1281">
+        <v>10</v>
+      </c>
+      <c r="G1281">
+        <v>1004</v>
+      </c>
+      <c r="H1281">
+        <v>10.6</v>
+      </c>
+      <c r="I1281" t="s">
+        <v>4944</v>
+      </c>
+      <c r="J1281" t="s">
+        <v>4945</v>
+      </c>
+      <c r="K1281" t="s">
+        <v>4946</v>
+      </c>
+      <c r="L1281" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1281">
+        <v>11011</v>
+      </c>
+      <c r="P1281" t="s">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282">
+        <v>2376</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>4924</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1282">
+        <v>5</v>
+      </c>
+      <c r="F1282">
+        <v>3</v>
+      </c>
+      <c r="G1282">
+        <v>1004</v>
+      </c>
+      <c r="H1282">
+        <v>11.69</v>
+      </c>
+      <c r="I1282" t="s">
+        <v>4948</v>
+      </c>
+      <c r="J1282" t="s">
+        <v>4949</v>
+      </c>
+      <c r="K1282" t="s">
+        <v>4950</v>
+      </c>
+      <c r="L1282" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1282">
+        <v>11009</v>
+      </c>
+      <c r="P1282" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283">
+        <v>2377</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>4951</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>4924</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1283">
+        <v>5</v>
+      </c>
+      <c r="F1283">
+        <v>3</v>
+      </c>
+      <c r="G1283">
+        <v>1004</v>
+      </c>
+      <c r="H1283">
+        <v>11.449999999999999</v>
+      </c>
+      <c r="I1283" t="s">
+        <v>4952</v>
+      </c>
+      <c r="J1283" t="s">
+        <v>4953</v>
+      </c>
+      <c r="K1283" t="s">
+        <v>4954</v>
+      </c>
+      <c r="L1283" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1283">
+        <v>11009</v>
+      </c>
+      <c r="P1283" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284">
+        <v>2378</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>4955</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1284">
+        <v>5</v>
+      </c>
+      <c r="F1284">
+        <v>3</v>
+      </c>
+      <c r="G1284">
+        <v>1004</v>
+      </c>
+      <c r="H1284">
+        <v>11.9</v>
+      </c>
+      <c r="I1284" t="s">
+        <v>4956</v>
+      </c>
+      <c r="J1284" t="s">
+        <v>4957</v>
+      </c>
+      <c r="K1284" t="s">
+        <v>4958</v>
+      </c>
+      <c r="L1284" t="s">
+        <v>3870</v>
+      </c>
+      <c r="N1284">
+        <v>11009</v>
+      </c>
+      <c r="P1284" t="s">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285">
+        <v>2379</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>4960</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>4955</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1285">
+        <v>14</v>
+      </c>
+      <c r="F1285">
+        <v>10</v>
+      </c>
+      <c r="G1285">
+        <v>1004</v>
+      </c>
+      <c r="H1285">
+        <v>11.32</v>
+      </c>
+      <c r="I1285" t="s">
+        <v>4961</v>
+      </c>
+      <c r="J1285" t="s">
+        <v>4962</v>
+      </c>
+      <c r="K1285" t="s">
+        <v>4963</v>
+      </c>
+      <c r="L1285" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1285">
+        <v>11011</v>
+      </c>
+      <c r="P1285" t="s">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286">
+        <v>2380</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>4965</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>4955</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1286">
+        <v>14</v>
+      </c>
+      <c r="F1286">
+        <v>10</v>
+      </c>
+      <c r="G1286">
+        <v>1004</v>
+      </c>
+      <c r="H1286">
+        <v>0</v>
+      </c>
+      <c r="I1286" t="s">
+        <v>4966</v>
+      </c>
+      <c r="J1286" t="s">
+        <v>4967</v>
+      </c>
+      <c r="K1286" t="s">
+        <v>4967</v>
+      </c>
+      <c r="L1286" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1286">
+        <v>11011</v>
+      </c>
+      <c r="P1286" t="s">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287">
+        <v>2381</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>4955</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1287">
+        <v>43</v>
+      </c>
+      <c r="F1287">
+        <v>8</v>
+      </c>
+      <c r="G1287">
+        <v>1004</v>
+      </c>
+      <c r="H1287">
+        <v>12.369999999999999</v>
+      </c>
+      <c r="I1287" t="s">
+        <v>984</v>
+      </c>
+      <c r="J1287" t="s">
+        <v>4968</v>
+      </c>
+      <c r="K1287" t="s">
+        <v>4969</v>
+      </c>
+      <c r="L1287" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1287">
+        <v>11011</v>
+      </c>
+      <c r="P1287" t="s">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288">
+        <v>2382</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>4955</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1288">
+        <v>5</v>
+      </c>
+      <c r="F1288">
+        <v>3</v>
+      </c>
+      <c r="G1288">
+        <v>1004</v>
+      </c>
+      <c r="H1288">
+        <v>0</v>
+      </c>
+      <c r="I1288" t="s">
+        <v>4971</v>
+      </c>
+      <c r="J1288" t="s">
+        <v>4972</v>
+      </c>
+      <c r="K1288" t="s">
+        <v>4972</v>
+      </c>
+      <c r="L1288" t="s">
+        <v>3870</v>
+      </c>
+      <c r="N1288">
+        <v>11011</v>
+      </c>
+      <c r="P1288" t="s">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289">
+        <v>2383</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>4955</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1289">
+        <v>5</v>
+      </c>
+      <c r="F1289">
+        <v>3</v>
+      </c>
+      <c r="G1289">
+        <v>1004</v>
+      </c>
+      <c r="H1289">
+        <v>11.550000000000001</v>
+      </c>
+      <c r="I1289" t="s">
+        <v>4973</v>
+      </c>
+      <c r="J1289" t="s">
+        <v>4974</v>
+      </c>
+      <c r="K1289" t="s">
+        <v>4975</v>
+      </c>
+      <c r="L1289" t="s">
+        <v>3870</v>
+      </c>
+      <c r="N1289">
+        <v>11009</v>
+      </c>
+      <c r="P1289" t="s">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290">
+        <v>2384</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>4976</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>4955</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1290">
+        <v>14</v>
+      </c>
+      <c r="F1290">
+        <v>10</v>
+      </c>
+      <c r="G1290">
+        <v>1004</v>
+      </c>
+      <c r="H1290">
+        <v>0</v>
+      </c>
+      <c r="I1290" t="s">
+        <v>4977</v>
+      </c>
+      <c r="J1290" t="s">
+        <v>4978</v>
+      </c>
+      <c r="K1290" t="s">
+        <v>4979</v>
+      </c>
+      <c r="L1290" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1290">
+        <v>11011</v>
+      </c>
+      <c r="P1290" t="s">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291">
+        <v>2385</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1291">
+        <v>5</v>
+      </c>
+      <c r="F1291">
+        <v>3</v>
+      </c>
+      <c r="G1291">
+        <v>1003</v>
+      </c>
+      <c r="H1291">
+        <v>11.52</v>
+      </c>
+      <c r="I1291" t="s">
+        <v>4981</v>
+      </c>
+      <c r="J1291" t="s">
+        <v>4982</v>
+      </c>
+      <c r="K1291" t="s">
+        <v>4983</v>
+      </c>
+      <c r="L1291" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1291">
+        <v>11009</v>
+      </c>
+      <c r="P1291" t="s">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292">
+        <v>2386</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1292">
+        <v>5</v>
+      </c>
+      <c r="F1292">
+        <v>3</v>
+      </c>
+      <c r="G1292">
+        <v>1003</v>
+      </c>
+      <c r="H1292">
+        <v>11.75</v>
+      </c>
+      <c r="I1292" t="s">
+        <v>4985</v>
+      </c>
+      <c r="J1292" t="s">
+        <v>4986</v>
+      </c>
+      <c r="K1292" t="s">
+        <v>4987</v>
+      </c>
+      <c r="L1292" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1292">
+        <v>11009</v>
+      </c>
+      <c r="P1292" t="s">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293">
+        <v>2387</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>4988</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1293">
+        <v>5</v>
+      </c>
+      <c r="F1293">
+        <v>3</v>
+      </c>
+      <c r="G1293">
+        <v>1003</v>
+      </c>
+      <c r="H1293">
+        <v>11.75</v>
+      </c>
+      <c r="I1293" t="s">
+        <v>4989</v>
+      </c>
+      <c r="J1293" t="s">
+        <v>4990</v>
+      </c>
+      <c r="K1293" t="s">
+        <v>4991</v>
+      </c>
+      <c r="L1293" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1293">
+        <v>11009</v>
+      </c>
+      <c r="P1293" t="s">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294">
+        <v>2388</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1294">
+        <v>5</v>
+      </c>
+      <c r="F1294">
+        <v>3</v>
+      </c>
+      <c r="G1294">
+        <v>1003</v>
+      </c>
+      <c r="H1294">
+        <v>11.59</v>
+      </c>
+      <c r="I1294" t="s">
+        <v>4992</v>
+      </c>
+      <c r="J1294" t="s">
+        <v>4993</v>
+      </c>
+      <c r="K1294" t="s">
+        <v>4994</v>
+      </c>
+      <c r="L1294" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1294">
+        <v>11009</v>
+      </c>
+      <c r="P1294" t="s">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295">
+        <v>2389</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>3626</v>
+      </c>
+      <c r="E1295">
+        <v>6</v>
+      </c>
+      <c r="F1295">
+        <v>25</v>
+      </c>
+      <c r="G1295">
+        <v>1003</v>
+      </c>
+      <c r="H1295">
+        <v>12.24</v>
+      </c>
+      <c r="I1295" t="s">
+        <v>4996</v>
+      </c>
+      <c r="J1295" t="s">
+        <v>4997</v>
+      </c>
+      <c r="K1295" t="s">
+        <v>4998</v>
+      </c>
+      <c r="L1295" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1295">
+        <v>11009</v>
+      </c>
+      <c r="P1295" t="s">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296">
+        <v>2390</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E1296">
+        <v>19</v>
+      </c>
+      <c r="F1296">
+        <v>7</v>
+      </c>
+      <c r="G1296">
+        <v>1003</v>
+      </c>
+      <c r="H1296">
+        <v>12.6</v>
+      </c>
+      <c r="I1296" t="s">
+        <v>5000</v>
+      </c>
+      <c r="J1296" t="s">
+        <v>5001</v>
+      </c>
+      <c r="K1296" t="s">
+        <v>5002</v>
+      </c>
+      <c r="L1296" t="s">
+        <v>233</v>
+      </c>
+      <c r="N1296">
+        <v>13001</v>
+      </c>
+      <c r="P1296" t="s">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297">
+        <v>2391</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>4980</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E1297">
+        <v>19</v>
+      </c>
+      <c r="F1297">
+        <v>7</v>
+      </c>
+      <c r="G1297">
+        <v>1003</v>
+      </c>
+      <c r="H1297">
+        <v>12.6</v>
+      </c>
+      <c r="I1297" t="s">
+        <v>5004</v>
+      </c>
+      <c r="J1297" t="s">
+        <v>5005</v>
+      </c>
+      <c r="K1297" t="s">
+        <v>5006</v>
+      </c>
+      <c r="L1297" t="s">
+        <v>233</v>
+      </c>
+      <c r="N1297">
+        <v>13001</v>
+      </c>
+      <c r="P1297" t="s">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298">
+        <v>2392</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>5007</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1298">
+        <v>14</v>
+      </c>
+      <c r="F1298">
+        <v>10</v>
+      </c>
+      <c r="G1298">
+        <v>1003</v>
+      </c>
+      <c r="H1298">
+        <v>10.27</v>
+      </c>
+      <c r="I1298" t="s">
+        <v>5009</v>
+      </c>
+      <c r="J1298" t="s">
+        <v>5010</v>
+      </c>
+      <c r="K1298" t="s">
+        <v>5011</v>
+      </c>
+      <c r="L1298" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1298">
+        <v>11011</v>
+      </c>
+      <c r="P1298" t="s">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299">
+        <v>2393</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1299">
+        <v>14</v>
+      </c>
+      <c r="F1299">
+        <v>10</v>
+      </c>
+      <c r="G1299">
+        <v>1003</v>
+      </c>
+      <c r="H1299">
+        <v>10.43</v>
+      </c>
+      <c r="I1299" t="s">
+        <v>5013</v>
+      </c>
+      <c r="J1299" t="s">
+        <v>5014</v>
+      </c>
+      <c r="K1299" t="s">
+        <v>5015</v>
+      </c>
+      <c r="L1299" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1299">
+        <v>11011</v>
+      </c>
+      <c r="P1299" t="s">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300">
+        <v>2394</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1300">
+        <v>43</v>
+      </c>
+      <c r="F1300">
+        <v>8</v>
+      </c>
+      <c r="G1300">
+        <v>1003</v>
+      </c>
+      <c r="H1300">
+        <v>11.75</v>
+      </c>
+      <c r="I1300" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J1300" t="s">
+        <v>5016</v>
+      </c>
+      <c r="K1300" t="s">
+        <v>5017</v>
+      </c>
+      <c r="L1300" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1300">
+        <v>11011</v>
+      </c>
+      <c r="P1300" t="s">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301">
+        <v>2395</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1301">
+        <v>43</v>
+      </c>
+      <c r="F1301">
+        <v>8</v>
+      </c>
+      <c r="G1301">
+        <v>1003</v>
+      </c>
+      <c r="H1301">
+        <v>11.449999999999999</v>
+      </c>
+      <c r="I1301" t="s">
+        <v>948</v>
+      </c>
+      <c r="J1301" t="s">
+        <v>5019</v>
+      </c>
+      <c r="K1301" t="s">
+        <v>5020</v>
+      </c>
+      <c r="L1301" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1301">
+        <v>11011</v>
+      </c>
+      <c r="P1301" t="s">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302">
+        <v>2396</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1302">
+        <v>43</v>
+      </c>
+      <c r="F1302">
+        <v>8</v>
+      </c>
+      <c r="G1302">
+        <v>1003</v>
+      </c>
+      <c r="H1302">
+        <v>11.880000000000001</v>
+      </c>
+      <c r="I1302" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J1302" t="s">
+        <v>5021</v>
+      </c>
+      <c r="K1302" t="s">
+        <v>5022</v>
+      </c>
+      <c r="L1302" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1302">
+        <v>11011</v>
+      </c>
+      <c r="P1302" t="s">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303">
+        <v>2397</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1303">
+        <v>43</v>
+      </c>
+      <c r="F1303">
+        <v>8</v>
+      </c>
+      <c r="G1303">
+        <v>1003</v>
+      </c>
+      <c r="H1303">
+        <v>11.42</v>
+      </c>
+      <c r="I1303" t="s">
+        <v>992</v>
+      </c>
+      <c r="J1303" t="s">
+        <v>5023</v>
+      </c>
+      <c r="K1303" t="s">
+        <v>5024</v>
+      </c>
+      <c r="L1303" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1303">
+        <v>11011</v>
+      </c>
+      <c r="P1303" t="s">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304">
+        <v>2398</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1304">
+        <v>43</v>
+      </c>
+      <c r="F1304">
+        <v>8</v>
+      </c>
+      <c r="G1304">
+        <v>1003</v>
+      </c>
+      <c r="H1304">
+        <v>11.68</v>
+      </c>
+      <c r="I1304" t="s">
+        <v>988</v>
+      </c>
+      <c r="J1304" t="s">
+        <v>5025</v>
+      </c>
+      <c r="K1304" t="s">
+        <v>5026</v>
+      </c>
+      <c r="L1304" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1304">
+        <v>11011</v>
+      </c>
+      <c r="P1304" t="s">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305">
+        <v>2399</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1305">
+        <v>43</v>
+      </c>
+      <c r="F1305">
+        <v>8</v>
+      </c>
+      <c r="G1305">
+        <v>1003</v>
+      </c>
+      <c r="H1305">
+        <v>11.52</v>
+      </c>
+      <c r="I1305" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1305" t="s">
+        <v>5027</v>
+      </c>
+      <c r="K1305" t="s">
+        <v>5028</v>
+      </c>
+      <c r="L1305" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1305">
+        <v>11011</v>
+      </c>
+      <c r="P1305" t="s">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306">
+        <v>2400</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>5029</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E1306">
+        <v>19</v>
+      </c>
+      <c r="F1306">
+        <v>7</v>
+      </c>
+      <c r="G1306">
+        <v>1003</v>
+      </c>
+      <c r="H1306">
+        <v>12.210000000000001</v>
+      </c>
+      <c r="I1306" t="s">
+        <v>5030</v>
+      </c>
+      <c r="J1306" t="s">
+        <v>5031</v>
+      </c>
+      <c r="K1306" t="s">
+        <v>5032</v>
+      </c>
+      <c r="L1306" t="s">
+        <v>233</v>
+      </c>
+      <c r="N1306">
+        <v>13001</v>
+      </c>
+      <c r="P1306" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307">
+        <v>2401</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1307">
+        <v>43</v>
+      </c>
+      <c r="F1307">
+        <v>8</v>
+      </c>
+      <c r="G1307">
+        <v>1003</v>
+      </c>
+      <c r="H1307">
+        <v>11.51</v>
+      </c>
+      <c r="I1307" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J1307" t="s">
+        <v>5035</v>
+      </c>
+      <c r="K1307" t="s">
+        <v>5036</v>
+      </c>
+      <c r="L1307" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1307">
+        <v>11011</v>
+      </c>
+      <c r="P1307" t="s">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308">
+        <v>2402</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1308">
+        <v>43</v>
+      </c>
+      <c r="F1308">
+        <v>8</v>
+      </c>
+      <c r="G1308">
+        <v>1003</v>
+      </c>
+      <c r="H1308">
+        <v>11.67</v>
+      </c>
+      <c r="I1308" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J1308" t="s">
+        <v>5038</v>
+      </c>
+      <c r="K1308" t="s">
+        <v>5039</v>
+      </c>
+      <c r="L1308" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1308">
+        <v>11011</v>
+      </c>
+      <c r="P1308" t="s">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309">
+        <v>2403</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1309">
+        <v>43</v>
+      </c>
+      <c r="F1309">
+        <v>8</v>
+      </c>
+      <c r="G1309">
+        <v>1003</v>
+      </c>
+      <c r="H1309">
+        <v>11.49</v>
+      </c>
+      <c r="I1309" t="s">
+        <v>5040</v>
+      </c>
+      <c r="J1309" t="s">
+        <v>5041</v>
+      </c>
+      <c r="K1309" t="s">
+        <v>5042</v>
+      </c>
+      <c r="L1309" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1309">
+        <v>11011</v>
+      </c>
+      <c r="P1309" t="s">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310">
+        <v>2404</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1310">
+        <v>43</v>
+      </c>
+      <c r="F1310">
+        <v>8</v>
+      </c>
+      <c r="G1310">
+        <v>1003</v>
+      </c>
+      <c r="H1310">
+        <v>11.82</v>
+      </c>
+      <c r="I1310" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J1310" t="s">
+        <v>5043</v>
+      </c>
+      <c r="K1310" t="s">
+        <v>5044</v>
+      </c>
+      <c r="L1310" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1310">
+        <v>11011</v>
+      </c>
+      <c r="P1310" t="s">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311">
+        <v>2405</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1311">
+        <v>43</v>
+      </c>
+      <c r="F1311">
+        <v>8</v>
+      </c>
+      <c r="G1311">
+        <v>1003</v>
+      </c>
+      <c r="H1311">
+        <v>11.390000000000001</v>
+      </c>
+      <c r="I1311" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J1311" t="s">
+        <v>5045</v>
+      </c>
+      <c r="K1311" t="s">
+        <v>5046</v>
+      </c>
+      <c r="L1311" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1311">
+        <v>11011</v>
+      </c>
+      <c r="P1311" t="s">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312">
+        <v>2406</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1312">
+        <v>5</v>
+      </c>
+      <c r="F1312">
+        <v>3</v>
+      </c>
+      <c r="G1312">
+        <v>1003</v>
+      </c>
+      <c r="H1312">
+        <v>11.59</v>
+      </c>
+      <c r="I1312" t="s">
+        <v>5047</v>
+      </c>
+      <c r="J1312" t="s">
+        <v>5048</v>
+      </c>
+      <c r="K1312" t="s">
+        <v>5049</v>
+      </c>
+      <c r="L1312" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1312">
+        <v>11009</v>
+      </c>
+      <c r="P1312" t="s">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313">
+        <v>2407</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>5051</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1313">
+        <v>14</v>
+      </c>
+      <c r="F1313">
+        <v>10</v>
+      </c>
+      <c r="G1313">
+        <v>1003</v>
+      </c>
+      <c r="H1313">
+        <v>10.56</v>
+      </c>
+      <c r="I1313" t="s">
+        <v>5052</v>
+      </c>
+      <c r="J1313" t="s">
+        <v>5053</v>
+      </c>
+      <c r="K1313" t="s">
+        <v>5054</v>
+      </c>
+      <c r="L1313" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1313">
+        <v>11011</v>
+      </c>
+      <c r="P1313" t="s">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314">
+        <v>2408</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1314">
+        <v>5</v>
+      </c>
+      <c r="F1314">
+        <v>3</v>
+      </c>
+      <c r="G1314">
+        <v>1003</v>
+      </c>
+      <c r="H1314">
+        <v>11.390000000000001</v>
+      </c>
+      <c r="I1314" t="s">
+        <v>5056</v>
+      </c>
+      <c r="J1314" t="s">
+        <v>5057</v>
+      </c>
+      <c r="K1314" t="s">
+        <v>5058</v>
+      </c>
+      <c r="L1314" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1314">
+        <v>11009</v>
+      </c>
+      <c r="P1314" t="s">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315">
+        <v>2409</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E1315">
+        <v>14</v>
+      </c>
+      <c r="F1315">
+        <v>10</v>
+      </c>
+      <c r="G1315">
+        <v>1003</v>
+      </c>
+      <c r="H1315">
+        <v>10.630000000000001</v>
+      </c>
+      <c r="I1315" t="s">
+        <v>5059</v>
+      </c>
+      <c r="J1315" t="s">
+        <v>5060</v>
+      </c>
+      <c r="K1315" t="s">
+        <v>5061</v>
+      </c>
+      <c r="L1315" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1315">
+        <v>11011</v>
+      </c>
+      <c r="P1315" t="s">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316">
+        <v>2410</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>5062</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1316">
+        <v>43</v>
+      </c>
+      <c r="F1316">
+        <v>8</v>
+      </c>
+      <c r="G1316">
+        <v>1003</v>
+      </c>
+      <c r="H1316">
+        <v>11.289999999999999</v>
+      </c>
+      <c r="I1316" t="s">
+        <v>5063</v>
+      </c>
+      <c r="J1316" t="s">
+        <v>5064</v>
+      </c>
+      <c r="K1316" t="s">
+        <v>5065</v>
+      </c>
+      <c r="L1316" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1316">
+        <v>11011</v>
+      </c>
+      <c r="P1316" t="s">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317">
+        <v>2411</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>5062</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E1317">
+        <v>43</v>
+      </c>
+      <c r="F1317">
+        <v>8</v>
+      </c>
+      <c r="G1317">
+        <v>1003</v>
+      </c>
+      <c r="H1317">
+        <v>11.42</v>
+      </c>
+      <c r="I1317" t="s">
+        <v>5067</v>
+      </c>
+      <c r="J1317" t="s">
+        <v>5068</v>
+      </c>
+      <c r="K1317" t="s">
+        <v>5069</v>
+      </c>
+      <c r="L1317" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1317">
+        <v>11011</v>
+      </c>
+      <c r="P1317" t="s">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318">
+        <v>2412</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>5070</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>5062</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>5071</v>
+      </c>
+      <c r="E1318">
+        <v>14</v>
+      </c>
+      <c r="F1318">
+        <v>10</v>
+      </c>
+      <c r="G1318">
+        <v>1003</v>
+      </c>
+      <c r="H1318">
+        <v>10.5</v>
+      </c>
+      <c r="I1318" t="s">
+        <v>5072</v>
+      </c>
+      <c r="J1318" t="s">
+        <v>5073</v>
+      </c>
+      <c r="K1318" t="s">
+        <v>5074</v>
+      </c>
+      <c r="L1318" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1318">
+        <v>11011</v>
+      </c>
+      <c r="P1318" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319">
+        <v>2413</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>5062</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>5071</v>
+      </c>
+      <c r="E1319">
+        <v>14</v>
+      </c>
+      <c r="F1319">
+        <v>10</v>
+      </c>
+      <c r="G1319">
+        <v>1003</v>
+      </c>
+      <c r="H1319">
+        <v>10.4</v>
+      </c>
+      <c r="I1319" t="s">
+        <v>5076</v>
+      </c>
+      <c r="J1319" t="s">
+        <v>5077</v>
+      </c>
+      <c r="K1319" t="s">
+        <v>5078</v>
+      </c>
+      <c r="L1319" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1319">
+        <v>11011</v>
+      </c>
+      <c r="P1319" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320">
+        <v>2414</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>5062</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1320">
+        <v>5</v>
+      </c>
+      <c r="F1320">
+        <v>3</v>
+      </c>
+      <c r="G1320">
+        <v>1003</v>
+      </c>
+      <c r="H1320">
+        <v>11.82</v>
+      </c>
+      <c r="I1320" t="s">
+        <v>5079</v>
+      </c>
+      <c r="J1320" t="s">
+        <v>5080</v>
+      </c>
+      <c r="K1320" t="s">
+        <v>5081</v>
+      </c>
+      <c r="L1320" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1320">
+        <v>11009</v>
+      </c>
+      <c r="P1320" t="s">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321">
+        <v>2415</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>5062</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1321">
+        <v>5</v>
+      </c>
+      <c r="F1321">
+        <v>3</v>
+      </c>
+      <c r="G1321">
+        <v>1003</v>
+      </c>
+      <c r="H1321">
+        <v>11.880000000000001</v>
+      </c>
+      <c r="I1321" t="s">
+        <v>5083</v>
+      </c>
+      <c r="J1321" t="s">
+        <v>5084</v>
+      </c>
+      <c r="K1321" t="s">
+        <v>5085</v>
+      </c>
+      <c r="L1321" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1321">
+        <v>11009</v>
+      </c>
+      <c r="P1321" t="s">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322">
+        <v>2416</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>765</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>5062</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>5071</v>
+      </c>
+      <c r="E1322">
+        <v>14</v>
+      </c>
+      <c r="F1322">
+        <v>10</v>
+      </c>
+      <c r="G1322">
+        <v>1003</v>
+      </c>
+      <c r="H1322">
+        <v>11.23</v>
+      </c>
+      <c r="I1322" t="s">
+        <v>5086</v>
+      </c>
+      <c r="J1322" t="s">
+        <v>5087</v>
+      </c>
+      <c r="K1322" t="s">
+        <v>5088</v>
+      </c>
+      <c r="L1322" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1322">
+        <v>11011</v>
+      </c>
+      <c r="P1322" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323">
+        <v>2417</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>5089</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1323">
+        <v>5</v>
+      </c>
+      <c r="F1323">
+        <v>3</v>
+      </c>
+      <c r="G1323">
+        <v>1003</v>
+      </c>
+      <c r="H1323">
+        <v>11.65</v>
+      </c>
+      <c r="I1323" t="s">
+        <v>5090</v>
+      </c>
+      <c r="J1323" t="s">
+        <v>5091</v>
+      </c>
+      <c r="K1323" t="s">
+        <v>5092</v>
+      </c>
+      <c r="L1323" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1323">
+        <v>11009</v>
+      </c>
+      <c r="P1323" t="s">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324">
+        <v>2418</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>5089</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>5071</v>
+      </c>
+      <c r="E1324">
+        <v>14</v>
+      </c>
+      <c r="F1324">
+        <v>10</v>
+      </c>
+      <c r="G1324">
+        <v>1003</v>
+      </c>
+      <c r="H1324">
+        <v>11.26</v>
+      </c>
+      <c r="I1324" t="s">
+        <v>5094</v>
+      </c>
+      <c r="J1324" t="s">
+        <v>5095</v>
+      </c>
+      <c r="K1324" t="s">
+        <v>5096</v>
+      </c>
+      <c r="L1324" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1324">
+        <v>11011</v>
+      </c>
+      <c r="P1324" t="s">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325">
+        <v>2419</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>5098</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E1325">
+        <v>5</v>
+      </c>
+      <c r="F1325">
+        <v>3</v>
+      </c>
+      <c r="G1325">
+        <v>1003</v>
+      </c>
+      <c r="H1325">
+        <v>0</v>
+      </c>
+      <c r="I1325" t="s">
+        <v>5099</v>
+      </c>
+      <c r="J1325" t="s">
+        <v>5100</v>
+      </c>
+      <c r="K1325" t="s">
+        <v>5100</v>
+      </c>
+      <c r="L1325" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1325">
+        <v>11009</v>
+      </c>
+      <c r="P1325" t="s">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326">
+        <v>2420</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>5098</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>5071</v>
+      </c>
+      <c r="E1326">
+        <v>14</v>
+      </c>
+      <c r="F1326">
+        <v>10</v>
+      </c>
+      <c r="G1326">
+        <v>1003</v>
+      </c>
+      <c r="H1326">
+        <v>0</v>
+      </c>
+      <c r="I1326" t="s">
+        <v>5102</v>
+      </c>
+      <c r="J1326" t="s">
+        <v>5103</v>
+      </c>
+      <c r="K1326" t="s">
+        <v>5103</v>
+      </c>
+      <c r="L1326" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1326">
+        <v>11011</v>
+      </c>
+      <c r="P1326" t="s">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327">
+        <v>2422</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>3788</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>5098</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>5071</v>
+      </c>
+      <c r="E1327">
+        <v>14</v>
+      </c>
+      <c r="F1327">
+        <v>10</v>
+      </c>
+      <c r="G1327">
+        <v>1003</v>
+      </c>
+      <c r="H1327">
+        <v>0</v>
+      </c>
+      <c r="I1327" t="s">
+        <v>5105</v>
+      </c>
+      <c r="J1327" t="s">
+        <v>5106</v>
+      </c>
+      <c r="K1327" t="s">
+        <v>5106</v>
+      </c>
+      <c r="L1327" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1327">
+        <v>11011</v>
+      </c>
+      <c r="P1327" t="s">
+        <v>5104</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>